--- a/data/toxicities/raw/Trainer_etal_2008_Table12-2.xlsx
+++ b/data/toxicities/raw/Trainer_etal_2008_Table12-2.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/hab_depuration/data/toxicities/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A9DFFB-A093-E04C-850A-94F54A015A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358F4ABD-2E4E-614B-BDA4-75FE7E1F73DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39380" yWindow="2560" windowWidth="31720" windowHeight="16880" xr2:uid="{5C88A2B6-D026-AA47-BBC2-55D01DD24E9D}"/>
+    <workbookView xWindow="18860" yWindow="500" windowWidth="31720" windowHeight="16880" xr2:uid="{5C88A2B6-D026-AA47-BBC2-55D01DD24E9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="153">
   <si>
     <t xml:space="preserve">Mytilus edulis </t>
   </si>
@@ -423,13 +413,138 @@
   </si>
   <si>
     <t>2003 to 2004</t>
+  </si>
+  <si>
+    <t>WBS, Shallowbay</t>
+  </si>
+  <si>
+    <t>WBS, Estuary</t>
+  </si>
+  <si>
+    <t>EBS, Upwelling</t>
+  </si>
+  <si>
+    <t>EBS, Upwelling, Bay</t>
+  </si>
+  <si>
+    <t>WBS, Upwelling</t>
+  </si>
+  <si>
+    <t>EBS, Tidal, Down welling</t>
+  </si>
+  <si>
+    <t>WBS, Deep estuary</t>
+  </si>
+  <si>
+    <t>Deep estuary</t>
+  </si>
+  <si>
+    <t>P. multiseries</t>
+  </si>
+  <si>
+    <t>P. pseudodelicatissima or P. calliantha</t>
+  </si>
+  <si>
+    <t>P. australis</t>
+  </si>
+  <si>
+    <t>Not directly linked</t>
+  </si>
+  <si>
+    <t>P. australis, P. pungens</t>
+  </si>
+  <si>
+    <t>P. seriata (likely)</t>
+  </si>
+  <si>
+    <t>Pseudo-nitzschia spp.</t>
+  </si>
+  <si>
+    <t>P. australis (likely)</t>
+  </si>
+  <si>
+    <t>P. pseudodelicatissima, P. australis</t>
+  </si>
+  <si>
+    <t>P. australis, P. seriata</t>
+  </si>
+  <si>
+    <t>Not determined</t>
+  </si>
+  <si>
+    <t>P. seriata</t>
+  </si>
+  <si>
+    <t>P. australis and P. multiseries</t>
+  </si>
+  <si>
+    <t>WBS, Banks</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bates, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">S.S., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">Garrison, D.L., Horner, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">R.A., </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">1998. Bloom dynamics and physiology of domoic-acid-producing </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">Pseudo-nitzschia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Times"/>
+      </rPr>
+      <t xml:space="preserve">species. In Anderson, D.M., Cembella, A.D., and Hallegraeff, G.M. (eds.), Physi- ological Ecology of Harmful Algal Blooms, pp. 267-292. Heidelberg, Springer-Verlag. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Bates, S.S., Trainer, V.L., 2006. The ecology of harmful diatoms. In Graneli, E., and Turner, J. (eds.), Ecology of Harmful Algae, pp. 81-93. Heidel- berg, Springer-Verlag. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -443,6 +558,23 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,9 +597,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -804,19 +937,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA78C914-8E2C-434B-BB42-1CBF8D966D71}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -836,7 +974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -849,8 +987,14 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -863,8 +1007,14 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -877,8 +1027,14 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>69</v>
       </c>
@@ -891,8 +1047,14 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -905,8 +1067,14 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -919,8 +1087,14 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -933,8 +1107,14 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -947,8 +1127,14 @@
       <c r="D9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -961,8 +1147,14 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -975,8 +1167,14 @@
       <c r="D11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -989,8 +1187,14 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1003,8 +1207,14 @@
       <c r="D13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -1017,8 +1227,14 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -1031,8 +1247,14 @@
       <c r="D15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -1045,8 +1267,14 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -1059,8 +1287,14 @@
       <c r="D17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1073,8 +1307,14 @@
       <c r="D18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -1087,8 +1327,14 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -1101,8 +1347,14 @@
       <c r="D20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1115,8 +1367,14 @@
       <c r="D21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -1129,8 +1387,14 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>76</v>
       </c>
@@ -1143,8 +1407,14 @@
       <c r="D23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1157,8 +1427,14 @@
       <c r="D24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1171,8 +1447,14 @@
       <c r="D25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -1185,8 +1467,14 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1199,8 +1487,14 @@
       <c r="D27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1213,8 +1507,14 @@
       <c r="D28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -1227,8 +1527,14 @@
       <c r="D29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -1241,8 +1547,14 @@
       <c r="D30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>70</v>
       </c>
@@ -1255,8 +1567,14 @@
       <c r="D31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -1269,8 +1587,14 @@
       <c r="D32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -1283,8 +1607,14 @@
       <c r="D33" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>79</v>
       </c>
@@ -1297,8 +1627,14 @@
       <c r="D34" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -1311,8 +1647,14 @@
       <c r="D35" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -1325,8 +1667,14 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1339,8 +1687,14 @@
       <c r="D37" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -1353,8 +1707,14 @@
       <c r="D38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1367,8 +1727,14 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>71</v>
       </c>
@@ -1381,8 +1747,14 @@
       <c r="D40" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>139</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -1395,8 +1767,14 @@
       <c r="D41" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -1409,8 +1787,14 @@
       <c r="D42" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>122</v>
       </c>
@@ -1423,8 +1807,14 @@
       <c r="D43" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>122</v>
       </c>
@@ -1437,8 +1827,14 @@
       <c r="D44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -1451,8 +1847,14 @@
       <c r="D45" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>122</v>
       </c>
@@ -1465,8 +1867,14 @@
       <c r="D46" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -1479,8 +1887,14 @@
       <c r="D47" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>122</v>
       </c>
@@ -1493,8 +1907,14 @@
       <c r="D48" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -1507,8 +1927,14 @@
       <c r="D49" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>122</v>
       </c>
@@ -1521,8 +1947,14 @@
       <c r="D50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>148</v>
+      </c>
+      <c r="F50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -1535,8 +1967,14 @@
       <c r="D51" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>121</v>
       </c>
@@ -1549,8 +1987,14 @@
       <c r="D52" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>140</v>
+      </c>
+      <c r="F52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -1563,8 +2007,14 @@
       <c r="D53" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>140</v>
+      </c>
+      <c r="F53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>123</v>
       </c>
@@ -1577,8 +2027,14 @@
       <c r="D54" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>139</v>
+      </c>
+      <c r="F54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>124</v>
       </c>
@@ -1591,8 +2047,14 @@
       <c r="D55" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -1605,8 +2067,14 @@
       <c r="D56" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>124</v>
       </c>
@@ -1619,8 +2087,14 @@
       <c r="D57" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>124</v>
       </c>
@@ -1633,8 +2107,14 @@
       <c r="D58" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -1647,8 +2127,14 @@
       <c r="D59" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>149</v>
+      </c>
+      <c r="F59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -1661,8 +2147,14 @@
       <c r="D60" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -1675,8 +2167,14 @@
       <c r="D61" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>144</v>
+      </c>
+      <c r="F61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -1689,8 +2187,14 @@
       <c r="D62" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>144</v>
+      </c>
+      <c r="F62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -1703,8 +2207,14 @@
       <c r="D63" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>126</v>
       </c>
@@ -1717,8 +2227,14 @@
       <c r="D64" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>144</v>
+      </c>
+      <c r="F64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -1730,6 +2246,37 @@
       </c>
       <c r="D65" t="s">
         <v>118</v>
+      </c>
+      <c r="E65" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A05E81-DF15-2A40-AFBE-6A8828528A7B}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
